--- a/resultados/tablas/analisis_spotify.xlsx
+++ b/resultados/tablas/analisis_spotify.xlsx
@@ -146,7 +146,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -176,7 +176,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -206,7 +206,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -236,7 +236,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -266,7 +266,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -296,7 +296,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -326,7 +326,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>9</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>

--- a/resultados/tablas/analisis_spotify.xlsx
+++ b/resultados/tablas/analisis_spotify.xlsx
@@ -146,7 +146,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -176,7 +176,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -206,7 +206,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -236,7 +236,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -266,7 +266,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -296,7 +296,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -326,7 +326,7 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>9</col>
+      <col>7</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -1953,7 +1953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1969,64 +1969,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>danceability</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>energy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>acousticness</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>instrumentalness</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>liveness</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>speechiness</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>valence</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1900</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4838571428571429</v>
+        <v>0.7130714285714286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2821928571428571</v>
+        <v>0.7369285714285715</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7130714285714286</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.7369285714285715</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1292642857142857</v>
-      </c>
-      <c r="G2" t="n">
         <v>0.05169285714285714</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.4221571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -2034,25 +2002,13 @@
         <v>1908</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6041052631578947</v>
+        <v>0.4109315789473684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4736947368421052</v>
+        <v>0.007279443684210527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4109315789473684</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.007279443684210527</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.1872631578947369</v>
-      </c>
-      <c r="G3" t="n">
         <v>0.07639473684210525</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.657</v>
       </c>
     </row>
     <row r="4">
@@ -2060,25 +2016,13 @@
         <v>1925</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3143125</v>
+        <v>0.9455625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.129225</v>
+        <v>0.08382219375000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9455625</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.08382219375000001</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="G4" t="n">
         <v>0.08409999999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.14896875</v>
       </c>
     </row>
     <row r="5">
@@ -2086,25 +2030,13 @@
         <v>1930</v>
       </c>
       <c r="B5" t="n">
-        <v>0.376</v>
+        <v>0.4067040000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0.391</v>
+        <v>0.01308528</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4067040000000001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.01308528</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.14642</v>
-      </c>
-      <c r="G5" t="n">
         <v>0.03597999999999998</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.42824</v>
       </c>
     </row>
     <row r="6">
@@ -2112,25 +2044,13 @@
         <v>1931</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6829333333333333</v>
+        <v>0.8897999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3154</v>
+        <v>8.4e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8897999999999999</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8.4e-07</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7589333333333333</v>
-      </c>
-      <c r="G6" t="n">
         <v>0.641</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.7212666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -2138,25 +2058,13 @@
         <v>1939</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5383846153846155</v>
+        <v>0.8588461538461539</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3687538461538462</v>
+        <v>0.1069285488461538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8588461538461539</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1069285488461538</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3801038461538461</v>
-      </c>
-      <c r="G7" t="n">
         <v>0.1474346153846154</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.6563884615384615</v>
       </c>
     </row>
     <row r="8">
@@ -2164,25 +2072,13 @@
         <v>1943</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4379000000000001</v>
+        <v>0.9143000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42425</v>
+        <v>0.224896284</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9143000000000001</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.224896284</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.27772</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.319175</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.35439</v>
       </c>
     </row>
     <row r="9">
@@ -2190,25 +2086,13 @@
         <v>1949</v>
       </c>
       <c r="B9" t="n">
-        <v>0.582</v>
+        <v>0.4459928571428571</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2371714285714286</v>
+        <v>0.2271773921428571</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4459928571428571</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2271773921428571</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.2764642857142857</v>
-      </c>
-      <c r="G9" t="n">
         <v>0.1893</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.5441428571428572</v>
       </c>
     </row>
     <row r="10">
@@ -2216,25 +2100,13 @@
         <v>1951</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4280444444444444</v>
+        <v>0.9514222222222222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1792333333333333</v>
+        <v>0.3921588531111111</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9514222222222222</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3921588531111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.15128</v>
-      </c>
-      <c r="G10" t="n">
         <v>0.0579888888888889</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.2552844444444444</v>
       </c>
     </row>
     <row r="11">
@@ -2242,25 +2114,13 @@
         <v>1952</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3565</v>
+        <v>0.843625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.540875</v>
+        <v>0.1587456075</v>
       </c>
       <c r="D11" t="n">
-        <v>0.843625</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1587456075</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.269625</v>
-      </c>
-      <c r="G11" t="n">
         <v>0.05883749999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.38725</v>
       </c>
     </row>
     <row r="12">
@@ -2268,25 +2128,13 @@
         <v>1953</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5017924528301887</v>
+        <v>0.8560754716981132</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3625528301886792</v>
+        <v>0.3743366467924528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8560754716981132</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3743366467924528</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.4529283018867925</v>
-      </c>
-      <c r="G12" t="n">
         <v>0.09429056603773585</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.5586584905660377</v>
       </c>
     </row>
     <row r="13">
@@ -2294,25 +2142,13 @@
         <v>1954</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4203565217391305</v>
+        <v>0.9381304347826086</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1758391304347826</v>
+        <v>0.409300524347826</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9381304347826086</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.409300524347826</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2318086956521739</v>
-      </c>
-      <c r="G13" t="n">
         <v>0.05985217391304347</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.3694826086956521</v>
       </c>
     </row>
     <row r="14">
@@ -2320,25 +2156,13 @@
         <v>1955</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4852857142857143</v>
+        <v>0.9402857142857143</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1758642857142857</v>
+        <v>0.0005335885714285714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9402857142857143</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0005335885714285714</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1349857142857143</v>
-      </c>
-      <c r="G14" t="n">
         <v>0.04662142857142857</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.3914285714285714</v>
       </c>
     </row>
     <row r="15">
@@ -2346,25 +2170,13 @@
         <v>1956</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4964444444444445</v>
+        <v>0.8371851851851851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3409</v>
+        <v>0.16153833</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8371851851851851</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.16153833</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.1569666666666666</v>
-      </c>
-      <c r="G15" t="n">
         <v>0.08433333333333332</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4978888888888889</v>
       </c>
     </row>
     <row r="16">
@@ -2372,25 +2184,13 @@
         <v>1957</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5258923076923077</v>
+        <v>0.7546461538461539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3332523076923077</v>
+        <v>0.1147805176923077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7546461538461539</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1147805176923077</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.2270446153846154</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.1014230769230769</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.5257384615384616</v>
       </c>
     </row>
     <row r="17">
@@ -2398,25 +2198,13 @@
         <v>1958</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4871573333333333</v>
+        <v>0.7634784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3498766666666667</v>
+        <v>0.2505611843333334</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7634784</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.2505611843333334</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.24784</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.080362</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.5690413333333333</v>
       </c>
     </row>
     <row r="18">
@@ -2424,25 +2212,13 @@
         <v>1959</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4455570776255708</v>
+        <v>0.7889063926940639</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3211290867579908</v>
+        <v>0.191910561826484</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7889063926940639</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.191910561826484</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.2080931506849315</v>
-      </c>
-      <c r="G18" t="n">
         <v>0.0559648401826484</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.4675077625570776</v>
       </c>
     </row>
     <row r="19">
@@ -2450,25 +2226,13 @@
         <v>1960</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5172367647058823</v>
+        <v>0.7237794117647058</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4513573529411765</v>
+        <v>0.1901505254411765</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7237794117647058</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1901505254411765</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.1930323529411765</v>
-      </c>
-      <c r="G19" t="n">
         <v>0.09515441176470588</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5612470588235294</v>
       </c>
     </row>
     <row r="20">
@@ -2476,25 +2240,13 @@
         <v>1961</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5133394495412844</v>
+        <v>0.8456385321100918</v>
       </c>
       <c r="C20" t="n">
-        <v>0.351330366972477</v>
+        <v>0.2468177240366972</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8456385321100918</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.2468177240366972</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.1847990825688073</v>
-      </c>
-      <c r="G20" t="n">
         <v>0.05693394495412844</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5781229357798165</v>
       </c>
     </row>
     <row r="21">
@@ -2502,25 +2254,13 @@
         <v>1962</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4318690909090909</v>
+        <v>0.8846121212121213</v>
       </c>
       <c r="C21" t="n">
-        <v>0.292250303030303</v>
+        <v>0.172726565939394</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8846121212121213</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.172726565939394</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.2200115151515151</v>
-      </c>
-      <c r="G21" t="n">
         <v>0.05878181818181818</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.4323127272727272</v>
       </c>
     </row>
     <row r="22">
@@ -2528,25 +2268,13 @@
         <v>1963</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5101164383561644</v>
+        <v>0.7338416438356165</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3894133561643836</v>
+        <v>0.07542198061643836</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7338416438356165</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.07542198061643836</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.2482910958904109</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.05686986301369863</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.599866095890411</v>
       </c>
     </row>
     <row r="23">
@@ -2554,25 +2282,13 @@
         <v>1964</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5072524271844661</v>
+        <v>0.6925271844660194</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4744834951456311</v>
+        <v>0.03926064563106796</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6925271844660194</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.03926064563106796</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.1865514563106796</v>
-      </c>
-      <c r="G23" t="n">
         <v>0.05226990291262136</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.6179650485436893</v>
       </c>
     </row>
     <row r="24">
@@ -2580,25 +2296,13 @@
         <v>1965</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4868827397260274</v>
+        <v>0.587898686849315</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4227175342465753</v>
+        <v>0.1158779575068493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.587898686849315</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.1158779575068493</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.2443194520547945</v>
-      </c>
-      <c r="G24" t="n">
         <v>0.06098438356164383</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.5530632876712329</v>
       </c>
     </row>
     <row r="25">
@@ -2606,25 +2310,13 @@
         <v>1966</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4619568181818182</v>
+        <v>0.5257855454545455</v>
       </c>
       <c r="C25" t="n">
-        <v>0.47686</v>
+        <v>0.08956948486363636</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5257855454545455</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.08956948486363636</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.2529013636363636</v>
-      </c>
-      <c r="G25" t="n">
         <v>0.05518818181818182</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.516205909090909</v>
       </c>
     </row>
     <row r="26">
@@ -2632,25 +2324,13 @@
         <v>1967</v>
       </c>
       <c r="B26" t="n">
-        <v>0.519943894389439</v>
+        <v>0.5031201320132014</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4630620462046204</v>
+        <v>0.02182376211221122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5031201320132014</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.02182376211221122</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.2150663366336633</v>
-      </c>
-      <c r="G26" t="n">
         <v>0.04328151815181518</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.627046204620462</v>
       </c>
     </row>
     <row r="27">
@@ -2658,25 +2338,13 @@
         <v>1968</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4959744779582366</v>
+        <v>0.5329692157772622</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4542747099767981</v>
+        <v>0.09990398234338746</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5329692157772622</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.09990398234338746</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.2560603248259861</v>
-      </c>
-      <c r="G27" t="n">
         <v>0.06524129930394432</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5382422273781902</v>
       </c>
     </row>
     <row r="28">
@@ -2684,25 +2352,13 @@
         <v>1969</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5037952029520295</v>
+        <v>0.5036176236162362</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4574959963099631</v>
+        <v>0.1347267079151292</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5036176236162362</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1347267079151292</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.281170295202952</v>
-      </c>
-      <c r="G28" t="n">
         <v>0.09661439114391143</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.5759702952029521</v>
       </c>
     </row>
     <row r="29">
@@ -2710,25 +2366,13 @@
         <v>1970</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4825019704433497</v>
+        <v>0.452169034729064</v>
       </c>
       <c r="C29" t="n">
-        <v>0.456014802955665</v>
+        <v>0.196568952635468</v>
       </c>
       <c r="D29" t="n">
-        <v>0.452169034729064</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.196568952635468</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.232270197044335</v>
-      </c>
-      <c r="G29" t="n">
         <v>0.09759778325123152</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.5412064039408867</v>
       </c>
     </row>
     <row r="30">
@@ -2736,25 +2380,13 @@
         <v>1971</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4882755991285403</v>
+        <v>0.5104731132897603</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4856904139433551</v>
+        <v>0.2532032583442266</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5104731132897603</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.2532032583442266</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.2335533769063181</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.06189411764705882</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.5553986928104575</v>
       </c>
     </row>
     <row r="31">
@@ -2762,25 +2394,13 @@
         <v>1972</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4759379044684129</v>
+        <v>0.517453218798151</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4692862865947612</v>
+        <v>0.1709590027580894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.517453218798151</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.1709590027580894</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.274975500770416</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.08232711864406779</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.52637750385208</v>
       </c>
     </row>
     <row r="32">
@@ -2788,25 +2408,13 @@
         <v>1973</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5072346041055718</v>
+        <v>0.5619064390029325</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4704394134897361</v>
+        <v>0.1950292442082111</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5619064390029325</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.1950292442082111</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.2761684750733138</v>
-      </c>
-      <c r="G32" t="n">
         <v>0.0600491202346041</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.5866134897360704</v>
       </c>
     </row>
     <row r="33">
@@ -2814,25 +2422,13 @@
         <v>1974</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4627071748878924</v>
+        <v>0.5098647017937219</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4805941479820628</v>
+        <v>0.2401332762331839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5098647017937219</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.2401332762331839</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.258930269058296</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.0625439461883408</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.5137251121076233</v>
       </c>
     </row>
     <row r="34">
@@ -2840,25 +2436,13 @@
         <v>1975</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4708691176470588</v>
+        <v>0.5175772654411764</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4422350441176471</v>
+        <v>0.2241756191176471</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5175772654411764</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.2241756191176471</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.2294854411764706</v>
-      </c>
-      <c r="G34" t="n">
         <v>0.06485397058823529</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.4894126470588235</v>
       </c>
     </row>
     <row r="35">
@@ -2866,25 +2450,13 @@
         <v>1976</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4995461049284579</v>
+        <v>0.5301796500794912</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4845147853736089</v>
+        <v>0.2265301820985691</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5301796500794912</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.2265301820985691</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.2685564387917329</v>
-      </c>
-      <c r="G35" t="n">
         <v>0.05186899841017488</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.5417620031796503</v>
       </c>
     </row>
     <row r="36">
@@ -2892,25 +2464,13 @@
         <v>1977</v>
       </c>
       <c r="B36" t="n">
-        <v>0.51025818815331</v>
+        <v>0.4340042231707317</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5205066202090592</v>
+        <v>0.1395905690418118</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4340042231707317</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.1395905690418118</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.2013221254355401</v>
-      </c>
-      <c r="G36" t="n">
         <v>0.06037595818815331</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.5609655052264808</v>
       </c>
     </row>
     <row r="37">
@@ -2918,25 +2478,13 @@
         <v>1978</v>
       </c>
       <c r="B37" t="n">
-        <v>0.514332702020202</v>
+        <v>0.394904519280303</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5395072348484848</v>
+        <v>0.1597563193813131</v>
       </c>
       <c r="D37" t="n">
-        <v>0.394904519280303</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.1597563193813131</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.2482042929292929</v>
-      </c>
-      <c r="G37" t="n">
         <v>0.06415883838383839</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.5339256313131313</v>
       </c>
     </row>
     <row r="38">
@@ -2944,25 +2492,13 @@
         <v>1979</v>
       </c>
       <c r="B38" t="n">
-        <v>0.522769466403162</v>
+        <v>0.4395638070158103</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5258078656126483</v>
+        <v>0.2087515307806324</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4395638070158103</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.2087515307806324</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.2043962450592885</v>
-      </c>
-      <c r="G38" t="n">
         <v>0.07095691699604742</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.5620485177865613</v>
       </c>
     </row>
     <row r="39">
@@ -2970,25 +2506,13 @@
         <v>1980</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5263194610778443</v>
+        <v>0.4023558051297405</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5292230538922156</v>
+        <v>0.1622049362275449</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4023558051297405</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.1622049362275449</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.2310077844311377</v>
-      </c>
-      <c r="G39" t="n">
         <v>0.06332135728542915</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.5455126746506986</v>
       </c>
     </row>
     <row r="40">
@@ -2996,25 +2520,13 @@
         <v>1981</v>
       </c>
       <c r="B40" t="n">
-        <v>0.522059659090909</v>
+        <v>0.3085289379261363</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5879357656249999</v>
+        <v>0.1741292378409091</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3085289379261363</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.1741292378409091</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.2541267045454546</v>
-      </c>
-      <c r="G40" t="n">
         <v>0.059321875</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.5574678977272728</v>
       </c>
     </row>
     <row r="41">
@@ -3022,25 +2534,13 @@
         <v>1982</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5398454857142857</v>
+        <v>0.3912808235428571</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5252092205714286</v>
+        <v>0.1584469461714286</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3912808235428571</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.1584469461714286</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.2134205714285714</v>
-      </c>
-      <c r="G41" t="n">
         <v>0.06129222857142857</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.5451855999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3048,25 +2548,13 @@
         <v>1983</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5310951467268623</v>
+        <v>0.3270876685440181</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5856054176072235</v>
+        <v>0.1743683410383747</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3270876685440181</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.1743683410383747</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.219157223476298</v>
-      </c>
-      <c r="G42" t="n">
         <v>0.0782048532731377</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.5834362302483069</v>
       </c>
     </row>
     <row r="43">
@@ -3074,25 +2562,13 @@
         <v>1984</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4980843982169391</v>
+        <v>0.4223852405646359</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5073154249628529</v>
+        <v>0.2031005274591382</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4223852405646359</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.2031005274591382</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.2193664933135215</v>
-      </c>
-      <c r="G43" t="n">
         <v>0.06160163447251114</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.4891461367013373</v>
       </c>
     </row>
     <row r="44">
@@ -3100,25 +2576,13 @@
         <v>1985</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5004588805970149</v>
+        <v>0.416318254902985</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5002283096268657</v>
+        <v>0.225263794358209</v>
       </c>
       <c r="D44" t="n">
-        <v>0.416318254902985</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.225263794358209</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.212060223880597</v>
-      </c>
-      <c r="G44" t="n">
         <v>0.06717007462686567</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.497208880597015</v>
       </c>
     </row>
     <row r="45">
@@ -3126,25 +2590,13 @@
         <v>1986</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4716851176470588</v>
+        <v>0.4774460769294118</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4691643882352942</v>
+        <v>0.2585949072235294</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4774460769294118</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.2585949072235294</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.2171145882352941</v>
-      </c>
-      <c r="G45" t="n">
         <v>0.06804976470588235</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.4639626470588235</v>
       </c>
     </row>
     <row r="46">
@@ -3152,25 +2604,13 @@
         <v>1987</v>
       </c>
       <c r="B46" t="n">
-        <v>0.4866116257088847</v>
+        <v>0.5223223601512287</v>
       </c>
       <c r="C46" t="n">
-        <v>0.434271395557656</v>
+        <v>0.2868800584404537</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5223223601512287</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.2868800584404537</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.1951743856332703</v>
-      </c>
-      <c r="G46" t="n">
         <v>0.05773383742911153</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.4643312381852552</v>
       </c>
     </row>
     <row r="47">
@@ -3178,25 +2618,13 @@
         <v>1988</v>
       </c>
       <c r="B47" t="n">
-        <v>0.4375945945945945</v>
+        <v>0.5995931037595287</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3691653455647955</v>
+        <v>0.3776600908385308</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5995931037595287</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.3776600908385308</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.1867804227304227</v>
-      </c>
-      <c r="G47" t="n">
         <v>0.05555796950796951</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.4089400554400555</v>
       </c>
     </row>
     <row r="48">
@@ -3204,25 +2632,13 @@
         <v>1989</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4442201268265785</v>
+        <v>0.6179540470250896</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3574287703336091</v>
+        <v>0.3533574541080783</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6179540470250896</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.3533574541080783</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.1927181141439206</v>
-      </c>
-      <c r="G48" t="n">
         <v>0.06069536807278743</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.4151074441687345</v>
       </c>
     </row>
     <row r="49">
@@ -3230,25 +2646,13 @@
         <v>1990</v>
       </c>
       <c r="B49" t="n">
-        <v>0.4431014201401697</v>
+        <v>0.66258169227038</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3205482124677241</v>
+        <v>0.3855735084876429</v>
       </c>
       <c r="D49" t="n">
-        <v>0.66258169227038</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.3855735084876429</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.196889763924751</v>
-      </c>
-      <c r="G49" t="n">
         <v>0.07083109553670232</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.4029293987458502</v>
       </c>
     </row>
     <row r="50">
@@ -3256,25 +2660,13 @@
         <v>1991</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4404170606206786</v>
+        <v>0.6948806915709921</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3090893300369834</v>
+        <v>0.3561257315983277</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6948806915709921</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.3561257315983277</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.1897097282521306</v>
-      </c>
-      <c r="G50" t="n">
         <v>0.06263080881170606</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.3997526965750121</v>
       </c>
     </row>
     <row r="51">
@@ -3282,25 +2674,13 @@
         <v>1992</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4455358716875872</v>
+        <v>0.580111871450488</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3706640023709902</v>
+        <v>0.3377932816262204</v>
       </c>
       <c r="D51" t="n">
-        <v>0.580111871450488</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.3377932816262204</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.2082445746164575</v>
-      </c>
-      <c r="G51" t="n">
         <v>0.07634181311018132</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.4006837656903766</v>
       </c>
     </row>
     <row r="52">
@@ -3308,25 +2688,13 @@
         <v>1993</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4569163978494624</v>
+        <v>0.5976323414332845</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3667381890640274</v>
+        <v>0.343193168726784</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5976323414332845</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.343193168726784</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.206306093597263</v>
-      </c>
-      <c r="G52" t="n">
         <v>0.07052554985337244</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.4065291617790811</v>
       </c>
     </row>
     <row r="53">
@@ -3334,25 +2702,13 @@
         <v>1994</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4325548488905891</v>
+        <v>0.6302781287595639</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3404814816660291</v>
+        <v>0.3610446830967865</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6302781287595639</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.3610446830967865</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.1936307478959449</v>
-      </c>
-      <c r="G53" t="n">
         <v>0.06544888102524865</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.3966698833205815</v>
       </c>
     </row>
     <row r="54">
@@ -3360,25 +2716,13 @@
         <v>1995</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4354651133407655</v>
+        <v>0.628775451819398</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3423665360014864</v>
+        <v>0.3586301286755853</v>
       </c>
       <c r="D54" t="n">
-        <v>0.628775451819398</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.3586301286755853</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.1892964771460423</v>
-      </c>
-      <c r="G54" t="n">
         <v>0.07090389446302489</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.3900178937198067</v>
       </c>
     </row>
     <row r="55">
@@ -3386,25 +2730,13 @@
         <v>1996</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4650127288044727</v>
+        <v>0.5606604881075286</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4025548090296393</v>
+        <v>0.3133036028628322</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5606604881075286</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.3133036028628322</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.1972625335069312</v>
-      </c>
-      <c r="G55" t="n">
         <v>0.07287360802634602</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.4360598835873478</v>
       </c>
     </row>
     <row r="56">
@@ -3412,25 +2744,13 @@
         <v>1997</v>
       </c>
       <c r="B56" t="n">
-        <v>0.469810827086937</v>
+        <v>0.5991699788256776</v>
       </c>
       <c r="C56" t="n">
-        <v>0.377714373771542</v>
+        <v>0.3007841523550516</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5991699788256776</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.3007841523550516</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.1976088666794798</v>
-      </c>
-      <c r="G56" t="n">
         <v>0.07893344865141906</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.419841572810558</v>
       </c>
     </row>
     <row r="57">
@@ -3438,25 +2758,13 @@
         <v>1998</v>
       </c>
       <c r="B57" t="n">
-        <v>0.4698675590309721</v>
+        <v>0.5595302706740263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4104512665562711</v>
+        <v>0.3147209893302668</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5595302706740263</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.3147209893302668</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.190318748850046</v>
-      </c>
-      <c r="G57" t="n">
         <v>0.07716934682612696</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.4297844342226311</v>
       </c>
     </row>
     <row r="58">
@@ -3464,25 +2772,13 @@
         <v>1999</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4600029846421327</v>
+        <v>0.55582689149377</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4268017242973051</v>
+        <v>0.3331430919694774</v>
       </c>
       <c r="D58" t="n">
-        <v>0.55582689149377</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.3331430919694774</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.1966571752149135</v>
-      </c>
-      <c r="G58" t="n">
         <v>0.07677351009369265</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.408204810199942</v>
       </c>
     </row>
     <row r="59">
@@ -3490,25 +2786,13 @@
         <v>2000</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4552061082910321</v>
+        <v>0.591297357571489</v>
       </c>
       <c r="C59" t="n">
-        <v>0.396623127466159</v>
+        <v>0.3246181906328257</v>
       </c>
       <c r="D59" t="n">
-        <v>0.591297357571489</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.3246181906328257</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.1879793654822335</v>
-      </c>
-      <c r="G59" t="n">
         <v>0.07716670050761422</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.4105433126057529</v>
       </c>
     </row>
     <row r="60">
@@ -3516,25 +2800,13 @@
         <v>2001</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4879339325233729</v>
+        <v>0.5009066726742243</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4660781403098324</v>
+        <v>0.2908529037297322</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5009066726742243</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.2908529037297322</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.1915680140915044</v>
-      </c>
-      <c r="G60" t="n">
         <v>0.07920300799421887</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.4388010527979766</v>
       </c>
     </row>
     <row r="61">
@@ -3542,25 +2814,13 @@
         <v>2002</v>
       </c>
       <c r="B61" t="n">
-        <v>0.4887808275918635</v>
+        <v>0.4927885254031332</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4765709966904527</v>
+        <v>0.2685722728576115</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4927885254031332</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2685722728576115</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.2075526156496063</v>
-      </c>
-      <c r="G61" t="n">
         <v>0.08323133612204724</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.4365166051509186</v>
       </c>
     </row>
     <row r="62">
@@ -3568,25 +2828,13 @@
         <v>2003</v>
       </c>
       <c r="B62" t="n">
-        <v>0.4899195574311145</v>
+        <v>0.4688338940958899</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4928892634384198</v>
+        <v>0.2686822044891663</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4688338940958899</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.2686822044891663</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.2029218589311678</v>
-      </c>
-      <c r="G62" t="n">
         <v>0.08405911911769921</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.4363674782793716</v>
       </c>
     </row>
     <row r="63">
@@ -3594,25 +2842,13 @@
         <v>2004</v>
       </c>
       <c r="B63" t="n">
-        <v>0.49464173623215</v>
+        <v>0.4447597268354585</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5147921359783506</v>
+        <v>0.2583206511622787</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4447597268354585</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.2583206511622787</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.2018839127908754</v>
-      </c>
-      <c r="G63" t="n">
         <v>0.08203088401675687</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.4435603302449316</v>
       </c>
     </row>
     <row r="64">
@@ -3620,25 +2856,13 @@
         <v>2005</v>
       </c>
       <c r="B64" t="n">
-        <v>0.4978984937993236</v>
+        <v>0.4903231393706877</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4860816172942503</v>
+        <v>0.2749404228843292</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4903231393706877</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.2749404228843292</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.2026700910935738</v>
-      </c>
-      <c r="G64" t="n">
         <v>0.0817737519729425</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.4555513941375423</v>
       </c>
     </row>
     <row r="65">
@@ -3646,25 +2870,13 @@
         <v>2006</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4903430526760347</v>
+        <v>0.477678038407625</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4998023732530907</v>
+        <v>0.2790608793695769</v>
       </c>
       <c r="D65" t="n">
-        <v>0.477678038407625</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.2790608793695769</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.2032428875835061</v>
-      </c>
-      <c r="G65" t="n">
         <v>0.08628267296321891</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.4484536164862167</v>
       </c>
     </row>
     <row r="66">
@@ -3672,25 +2884,13 @@
         <v>2007</v>
       </c>
       <c r="B66" t="n">
-        <v>0.4926831948833424</v>
+        <v>0.4689637387726834</v>
       </c>
       <c r="C66" t="n">
-        <v>0.507793942587091</v>
+        <v>0.276613423974114</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4689637387726834</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.276613423974114</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.2043751830756713</v>
-      </c>
-      <c r="G66" t="n">
         <v>0.08380470982269569</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.4418775591802752</v>
       </c>
     </row>
     <row r="67">
@@ -3698,25 +2898,13 @@
         <v>2008</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4937371020584781</v>
+        <v>0.4446587679417279</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5264206450825245</v>
+        <v>0.2737763762545589</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4446587679417279</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.2737763762545589</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.201213778821784</v>
-      </c>
-      <c r="G67" t="n">
         <v>0.08287329747996126</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.4463160382023861</v>
       </c>
     </row>
     <row r="68">
@@ -3724,25 +2912,13 @@
         <v>2009</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4938886713574268</v>
+        <v>0.4455480390791338</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5185950265591447</v>
+        <v>0.2787303604162288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4455480390791338</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.2787303604162288</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.1966043628638004</v>
-      </c>
-      <c r="G68" t="n">
         <v>0.07881099054233107</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.4404072255219994</v>
       </c>
     </row>
     <row r="69">
@@ -3750,25 +2926,13 @@
         <v>2010</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4825277053968843</v>
+        <v>0.4469470383864985</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5226785408359607</v>
+        <v>0.2930823602719306</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4469470383864985</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.2930823602719306</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.2025494923034125</v>
-      </c>
-      <c r="G69" t="n">
         <v>0.08266890532270028</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.4272236319083828</v>
       </c>
     </row>
     <row r="70">
@@ -3776,25 +2940,13 @@
         <v>2011</v>
       </c>
       <c r="B70" t="n">
-        <v>0.484976271808157</v>
+        <v>0.449280182041083</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5203560505215618</v>
+        <v>0.3005745173451936</v>
       </c>
       <c r="D70" t="n">
-        <v>0.449280182041083</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.3005745173451936</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.2011634716522616</v>
-      </c>
-      <c r="G70" t="n">
         <v>0.07747048304637887</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.4246898111373484</v>
       </c>
     </row>
     <row r="71">
@@ -3802,25 +2954,13 @@
         <v>2012</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4831260539492812</v>
+        <v>0.4238839231407343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5354747843967048</v>
+        <v>0.2959738166649745</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4238839231407343</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.2959738166649745</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.1953855527609202</v>
-      </c>
-      <c r="G71" t="n">
         <v>0.07719110459884164</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.4134228670650945</v>
       </c>
     </row>
     <row r="72">
@@ -3828,25 +2968,13 @@
         <v>2013</v>
       </c>
       <c r="B72" t="n">
-        <v>0.4900918838277594</v>
+        <v>0.4268494220220667</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5304537651032499</v>
+        <v>0.3147985075986348</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4268494220220667</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.3147985075986348</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.2011388077963337</v>
-      </c>
-      <c r="G72" t="n">
         <v>0.07722828317520285</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.4127647391920319</v>
       </c>
     </row>
     <row r="73">
@@ -3854,25 +2982,13 @@
         <v>2014</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4886406357447002</v>
+        <v>0.4182760000683107</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5408468416057564</v>
+        <v>0.2890652544365508</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4182760000683107</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.2890652544365508</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.2013913115649976</v>
-      </c>
-      <c r="G73" t="n">
         <v>0.08392875196393196</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.4157515340301022</v>
       </c>
     </row>
     <row r="74">
@@ -3880,25 +2996,13 @@
         <v>2015</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4910931580212911</v>
+        <v>0.4116370228043369</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5431110940192799</v>
+        <v>0.3065538196854439</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4116370228043369</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.3065538196854439</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.2025008219118193</v>
-      </c>
-      <c r="G74" t="n">
         <v>0.08055073993923098</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.4113381133189061</v>
       </c>
     </row>
     <row r="75">
@@ -3906,25 +3010,13 @@
         <v>2016</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4951207735628519</v>
+        <v>0.3957274681734141</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5474751234682819</v>
+        <v>0.2963130897760068</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3957274681734141</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.2963130897760068</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.1948398342365317</v>
-      </c>
-      <c r="G75" t="n">
         <v>0.07871883540537668</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.4055082203804058</v>
       </c>
     </row>
     <row r="76">
@@ -3932,25 +3024,13 @@
         <v>2017</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4953047664816304</v>
+        <v>0.3924302115337086</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5453758934720778</v>
+        <v>0.2915533472636865</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3924302115337086</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.2915533472636865</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.2002911202212589</v>
-      </c>
-      <c r="G76" t="n">
         <v>0.08348396853729821</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.3944344477354308</v>
       </c>
     </row>
     <row r="77">
@@ -3958,25 +3038,13 @@
         <v>2018</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5171915574574307</v>
+        <v>0.3548907061372916</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5695751532958901</v>
+        <v>0.2699429948356958</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3548907061372916</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.2699429948356958</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.1972538842827851</v>
-      </c>
-      <c r="G77" t="n">
         <v>0.08828975127039315</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.4046800622269769</v>
       </c>
     </row>
     <row r="78">
@@ -3984,25 +3052,13 @@
         <v>2019</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5323400814712398</v>
+        <v>0.3256463892129402</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5846551994068061</v>
+        <v>0.2508242364696787</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3256463892129402</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.2508242364696787</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.2022661671349776</v>
-      </c>
-      <c r="G78" t="n">
         <v>0.100422606782332</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.4101560580110908</v>
       </c>
     </row>
     <row r="79">
@@ -4010,25 +3066,13 @@
         <v>2020</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5588894411452506</v>
+        <v>0.3120547741826606</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5851349891399146</v>
+        <v>0.2251195603686491</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3120547741826606</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0.2251195603686491</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.2029387913475055</v>
-      </c>
-      <c r="G79" t="n">
         <v>0.1360195355308833</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.4080526885561007</v>
       </c>
     </row>
   </sheetData>
